--- a/data/potus_approval_rating.xlsx
+++ b/data/potus_approval_rating.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuang\Desktop\w210-presidential-election\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62356,7 +62356,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
